--- a/testdata/excel2project_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2project_files/test-name (test_label)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC2841B8-66C6-0F41-8F64-12AAC77B0588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22768FC-BDD7-0242-9AC8-9673C7EC3C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
   <si>
     <t>super</t>
   </si>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>hasSequenceBounds</t>
-  </si>
-  <si>
-    <t>:hasAnthroponym</t>
   </si>
 </sst>
 </file>
@@ -853,7 +850,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -927,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>129</v>

--- a/testdata/excel2project_files/test-name (test_label)/properties.xlsx
+++ b/testdata/excel2project_files/test-name (test_label)/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nusjoh00-adm/Desktop/dsp-tools/testdata/excel2project_files/test-name (test_label)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22768FC-BDD7-0242-9AC8-9673C7EC3C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171E5CDE-BBD6-F543-8B28-7223B83899F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7DA9512F-9D5C-45E8-B143-D0C99717614D}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="134">
   <si>
     <t>super</t>
   </si>
@@ -375,18 +375,6 @@
   </si>
   <si>
     <t>hlist: status</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> is </t>
-  </si>
-  <si>
-    <t>missing!</t>
   </si>
   <si>
     <t>rm</t>
@@ -846,11 +834,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3015D75-1C5B-4AD1-9C97-0CD088290370}">
-  <dimension ref="A1:S33"/>
+  <dimension ref="A1:S28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -891,7 +879,7 @@
         <v>43</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>37</v>
@@ -906,7 +894,7 @@
         <v>44</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>2</v>
@@ -927,10 +915,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -940,23 +928,23 @@
         <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>108</v>
@@ -970,11 +958,11 @@
         <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -992,7 +980,7 @@
         <v>54</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>107</v>
@@ -1015,7 +1003,7 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1032,13 +1020,13 @@
         <v>55</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>108</v>
@@ -1061,7 +1049,7 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H5" s="5"/>
       <c r="I5" s="1" t="s">
@@ -1077,16 +1065,16 @@
         <v>56</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>96</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>109</v>
@@ -1110,7 +1098,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>38</v>
@@ -1125,14 +1113,14 @@
         <v>54</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="3"/>
       <c r="P6" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>109</v>
@@ -1157,10 +1145,10 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>18</v>
@@ -1188,11 +1176,11 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -1202,7 +1190,7 @@
       </c>
       <c r="O8" s="3"/>
       <c r="Q8" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>108</v>
@@ -1228,10 +1216,10 @@
         <v>34</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>21</v>
@@ -1255,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>15</v>
@@ -1279,7 +1267,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>108</v>
@@ -1294,7 +1282,7 @@
         <v>108</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>70</v>
@@ -1320,7 +1308,7 @@
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>39</v>
@@ -1332,10 +1320,10 @@
         <v>51</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>21</v>
@@ -1343,7 +1331,7 @@
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
       <c r="Q12" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
@@ -1369,7 +1357,7 @@
         <v>59</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>60</v>
@@ -1384,7 +1372,7 @@
         <v>60</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>16</v>
@@ -1410,7 +1398,7 @@
         <v>94</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>93</v>
@@ -1423,7 +1411,7 @@
       </c>
       <c r="O14" s="3"/>
       <c r="Q14" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
@@ -1446,7 +1434,7 @@
         <v>67</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>65</v>
@@ -1484,7 +1472,7 @@
         <v>76</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I16" s="5" t="s">
         <v>74</v>
@@ -1505,7 +1493,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>79</v>
@@ -1607,134 +1595,65 @@
         <v>15</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" s="1"/>
+        <v>131</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N22" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N23" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>117</v>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="K31" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="J33" s="5" t="s">
+      <c r="B28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J28" s="5" t="s">
         <v>108</v>
       </c>
     </row>
